--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -1,36 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ben/Dropbox/EI EPS/Canada InputData/elec/BCpUC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\BCpUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF11D8B-6961-42E1-8033-23B326896378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24120" windowHeight="14480"/>
+    <workbookView xWindow="2835" yWindow="1230" windowWidth="24765" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
-    <sheet name="Conversions" sheetId="4" r:id="rId2"/>
-    <sheet name="Calculations" sheetId="1" r:id="rId3"/>
+    <sheet name="Battery Calculations" sheetId="1" r:id="rId2"/>
+    <sheet name="Balance of System Calculations" sheetId="5" r:id="rId3"/>
     <sheet name="BCpUC" sheetId="3" r:id="rId4"/>
+    <sheet name="BBoSCpUC" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
   <si>
     <t>$/kW</t>
   </si>
@@ -132,9 +136,6 @@
   </si>
   <si>
     <t>See "cpi.xlsx" in the InputData folder for source information.</t>
-  </si>
-  <si>
-    <t>We adjust 2010 dollars to 2012 dollars using the following conversion factor:</t>
   </si>
   <si>
     <t>BCpUC Battery Cost per Unit Capacity</t>
@@ -169,9 +170,6 @@
     </r>
   </si>
   <si>
-    <t>do not wish to capture).then curve fit the remaining years to get values for 2010 through 2050.</t>
-  </si>
-  <si>
     <t>We curve fit the 2018-2030 data, which nicely matches a second-order polynomial, and use this</t>
   </si>
   <si>
@@ -184,59 +182,177 @@
     <t>in maximum battery usage rate.</t>
   </si>
   <si>
-    <t>From currency</t>
-  </si>
-  <si>
-    <t>From value</t>
-  </si>
-  <si>
-    <t>To value</t>
-  </si>
-  <si>
-    <t>To currency</t>
-  </si>
-  <si>
-    <t>2012USD</t>
-  </si>
-  <si>
-    <t>2015USD</t>
-  </si>
-  <si>
-    <t>2015CAD</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>http://www.bankofcanada.ca/rates/exchange/legacy-noon-and-closing-rates/?page_moved=1</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Annual average value</t>
-  </si>
-  <si>
-    <t>Additional steps for Canadian model</t>
-  </si>
-  <si>
-    <t>Converted 2015USD to 2015CAD (Ben)</t>
-  </si>
-  <si>
-    <t>Converted from 2012USD to 2015USD (Ben)</t>
-  </si>
-  <si>
-    <t>Updated values in 2015CAD</t>
+    <t>do not wish to capture). Then curve fit the remaining years to get values for 2010 through 2050.</t>
+  </si>
+  <si>
+    <t>Used to calculate battery storage deployment. Only the first year of this time series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input variable is used, and the remaining years are handled via endogenous </t>
+  </si>
+  <si>
+    <t>learning.</t>
+  </si>
+  <si>
+    <t>BCpUC Battery Balance of System Cost per Unit Capacity</t>
+  </si>
+  <si>
+    <t>Unit: $/MW</t>
+  </si>
+  <si>
+    <t>Balance of System</t>
+  </si>
+  <si>
+    <t>Table 3. Detailed Cost Breakdown for a 60-MW U.S. Li-ion Standalone Storage System with Durations of 0.5–4 Hours</t>
+  </si>
+  <si>
+    <t>60-MW, 4-hour Duration, 240-MWh</t>
+  </si>
+  <si>
+    <t>60-MW, 2-hour Duration, 120-MWh</t>
+  </si>
+  <si>
+    <t>60-MW, 1-hour Duration, 60-MWh</t>
+  </si>
+  <si>
+    <t>60-MW, 0.5-hour Duration, 30-MWh</t>
+  </si>
+  <si>
+    <t>Li-ion battery</t>
+  </si>
+  <si>
+    <t>Battery central inverter</t>
+  </si>
+  <si>
+    <t>Structural BOS</t>
+  </si>
+  <si>
+    <t>Electrical BOS</t>
+  </si>
+  <si>
+    <t>EPC overhead</t>
+  </si>
+  <si>
+    <t>Sales tax</t>
+  </si>
+  <si>
+    <t>∑ EPC cost</t>
+  </si>
+  <si>
+    <t>Land acquisition</t>
+  </si>
+  <si>
+    <t>Permitting fee</t>
+  </si>
+  <si>
+    <t>Interconnection fee</t>
+  </si>
+  <si>
+    <t>Contingency</t>
+  </si>
+  <si>
+    <t>Developer overhead</t>
+  </si>
+  <si>
+    <t>EPC/developer net profit</t>
+  </si>
+  <si>
+    <t>∑ Developer cost</t>
+  </si>
+  <si>
+    <t>Total Cost ($)</t>
+  </si>
+  <si>
+    <t>$/W</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Model Component</t>
+  </si>
+  <si>
+    <t>Installation labor &amp; equipment</t>
+  </si>
+  <si>
+    <t>Balance of System Costs</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy19osti/71714.pdf</t>
+  </si>
+  <si>
+    <t>Page 12, Table 3</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory</t>
+  </si>
+  <si>
+    <t>2018 U.S. Utility-Scale Photovoltaics Plus-Energy Storage System Costs Benchmark</t>
+  </si>
+  <si>
+    <t>Only the battery cost is affected by endogenous learning.  The "Balance of System"</t>
+  </si>
+  <si>
+    <t>costs are read directly from this variable and are not modified via endogenous learning</t>
+  </si>
+  <si>
+    <t>inside the simulator.</t>
+  </si>
+  <si>
+    <t>We use the largest (4-hour duration) for our estimate.</t>
+  </si>
+  <si>
+    <t>Balance of System (excl. sales tax)</t>
+  </si>
+  <si>
+    <t>Sales tax on balance of system elements</t>
+  </si>
+  <si>
+    <t>The "balance of system" should include all costs the utility must pay to purchase and</t>
+  </si>
+  <si>
+    <t>install the battery system, apart from the batteries themselves (and apart from sales</t>
+  </si>
+  <si>
+    <t>tax on the batteries).  This includes the inverter, labor, etc.</t>
+  </si>
+  <si>
+    <t>Currency Adjustment</t>
+  </si>
+  <si>
+    <t>2010 to 2012 USD</t>
+  </si>
+  <si>
+    <t>We adjust currency using the following conversion factors:</t>
+  </si>
+  <si>
+    <t>2018 $/W</t>
+  </si>
+  <si>
+    <t>2018 $/MW</t>
+  </si>
+  <si>
+    <t>2018 to 2012 USD</t>
+  </si>
+  <si>
+    <t>2012 $/MW</t>
+  </si>
+  <si>
+    <t>For the U.S. model, we assume the balance of system costs remain constant throughout the model run.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="#,##0;#,##0"/>
+    <numFmt numFmtId="170" formatCode="###0;###0"/>
+    <numFmt numFmtId="171" formatCode="###0.00;###0.00"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,14 +430,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,12 +466,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -391,6 +521,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -412,7 +684,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -441,19 +713,115 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -466,12 +834,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -485,7 +856,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -499,7 +869,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Calculations!$B$11</c:f>
+              <c:f>'Battery Calculations'!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -532,81 +902,81 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(Calculations!$A$16,Calculations!$A$18,Calculations!$A$20,Calculations!$A$22,Calculations!$A$24,Calculations!$A$26,Calculations!$A$28,Calculations!$A$30,Calculations!$A$32,Calculations!$A$34,Calculations!$A$36,Calculations!$A$38,Calculations!$A$40,Calculations!$A$42,Calculations!$A$44,Calculations!$A$46,Calculations!$A$48,Calculations!$A$50,Calculations!$A$52)</c:f>
+              <c:f>('Battery Calculations'!$A$16,'Battery Calculations'!$A$18,'Battery Calculations'!$A$20,'Battery Calculations'!$A$22,'Battery Calculations'!$A$24,'Battery Calculations'!$A$26,'Battery Calculations'!$A$28,'Battery Calculations'!$A$30,'Battery Calculations'!$A$32,'Battery Calculations'!$A$34,'Battery Calculations'!$A$36,'Battery Calculations'!$A$38,'Battery Calculations'!$A$40,'Battery Calculations'!$A$42,'Battery Calculations'!$A$44,'Battery Calculations'!$A$46,'Battery Calculations'!$A$48,'Battery Calculations'!$A$50,'Battery Calculations'!$A$52)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2014.0</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2016.0</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2018.0</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020.0</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2022.0</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2024.0</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2026.0</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2028.0</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2030.0</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2032.0</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2034.0</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2036.0</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2038.0</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2040.0</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2042.0</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2044.0</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2046.0</c:v>
+                  <c:v>2046</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2050.0</c:v>
+                  <c:v>2050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Calculations!$B$16,Calculations!$B$18,Calculations!$B$20,Calculations!$B$22,Calculations!$B$24,Calculations!$B$26,Calculations!$B$28,Calculations!$B$30,Calculations!$B$32,Calculations!$B$34,Calculations!$B$36,Calculations!$B$38,Calculations!$B$40,Calculations!$B$42,Calculations!$B$44,Calculations!$B$46,Calculations!$B$48,Calculations!$B$50,Calculations!$B$52)</c:f>
+              <c:f>('Battery Calculations'!$B$16,'Battery Calculations'!$B$18,'Battery Calculations'!$B$20,'Battery Calculations'!$B$22,'Battery Calculations'!$B$24,'Battery Calculations'!$B$26,'Battery Calculations'!$B$28,'Battery Calculations'!$B$30,'Battery Calculations'!$B$32,'Battery Calculations'!$B$34,'Battery Calculations'!$B$36,'Battery Calculations'!$B$38,'Battery Calculations'!$B$40,'Battery Calculations'!$B$42,'Battery Calculations'!$B$44,'Battery Calculations'!$B$46,'Battery Calculations'!$B$48,'Battery Calculations'!$B$50,'Battery Calculations'!$B$52)</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>343.5130505356938</c:v>
+                  <c:v>343.51305053569376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>304.4616223482881</c:v>
+                  <c:v>304.46162234828807</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>269.83</c:v>
@@ -630,10 +1000,10 @@
                   <c:v>137.68</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133.45</c:v>
+                  <c:v>133.44999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>130.39</c:v>
+                  <c:v>130.38999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>127.93</c:v>
@@ -663,6 +1033,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A29-436B-B23F-B2D260961CC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -672,11 +1047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2092076032"/>
-        <c:axId val="-2130543296"/>
+        <c:axId val="138340224"/>
+        <c:axId val="145572224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2092076032"/>
+        <c:axId val="138340224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,12 +1108,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130543296"/>
+        <c:crossAx val="145572224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2130543296"/>
+        <c:axId val="145572224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +1170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092076032"/>
+        <c:crossAx val="138340224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -809,7 +1184,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -866,7 +1240,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1146,260 +1526,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.1640625" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="7">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="7">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+    <row r="26" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="30" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+    </row>
+    <row r="39" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
         <v>1.0549999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="59">
+        <v>0.9143273584567535</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{CA93FE29-A0A0-406A-B94C-DC5006AB819F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4">
-        <v>1.03233</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="15">
-        <v>1.2787108</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J116"/>
-  <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1407,31 +1808,30 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2010</v>
       </c>
       <c r="B12" s="12">
-        <f>0.475952381*A12^2-1937.6138095236*A12+1972141.58142839</f>
+        <f t="shared" ref="B12:B14" si="0">0.475952381*A12^2-1937.6138095236*A12+1972141.58142839</f>
         <v>433.0387640541885</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2011</v>
       </c>
       <c r="B13" s="12">
-        <f t="shared" ref="B12:B14" si="0">0.475952381*A13^2-1937.6138095236*A13+1972141.58142839</f>
+        <f t="shared" si="0"/>
         <v>409.22947853151709</v>
       </c>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2012</v>
       </c>
@@ -1439,9 +1839,8 @@
         <f t="shared" si="0"/>
         <v>386.3720977709163</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2013</v>
       </c>
@@ -1449,9 +1848,8 @@
         <f>0.475952381*A15^2-1937.6138095236*A15+1972141.58142839</f>
         <v>364.4666217721533</v>
       </c>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2014</v>
       </c>
@@ -1459,9 +1857,8 @@
         <f t="shared" ref="B16:B31" si="1">0.475952381*A16^2-1937.6138095236*A16+1972141.58142839</f>
         <v>343.51305053569376</v>
       </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2015</v>
       </c>
@@ -1469,9 +1866,8 @@
         <f t="shared" si="1"/>
         <v>323.51138406107202</v>
       </c>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2016</v>
       </c>
@@ -1479,9 +1875,8 @@
         <f t="shared" si="1"/>
         <v>304.46162234828807</v>
       </c>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2017</v>
       </c>
@@ -1489,18 +1884,16 @@
         <f t="shared" si="1"/>
         <v>286.36376539757475</v>
       </c>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
       <c r="B20" s="10">
         <v>269.83</v>
       </c>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2019</v>
       </c>
@@ -1508,18 +1901,16 @@
         <f t="shared" si="1"/>
         <v>253.02376578282565</v>
       </c>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
       <c r="B22" s="10">
         <v>236.56</v>
       </c>
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2021</v>
       </c>
@@ -1527,18 +1918,16 @@
         <f t="shared" si="1"/>
         <v>223.49138521566056</v>
       </c>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
       <c r="B24" s="10">
         <v>210.4</v>
       </c>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2023</v>
       </c>
@@ -1546,18 +1935,16 @@
         <f t="shared" si="1"/>
         <v>197.76662369631231</v>
       </c>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2024</v>
       </c>
       <c r="B26" s="10">
         <v>186.83</v>
       </c>
-      <c r="C26" s="11"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2025</v>
       </c>
@@ -1565,18 +1952,16 @@
         <f t="shared" si="1"/>
         <v>175.84948122501373</v>
       </c>
-      <c r="C27" s="11"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2026</v>
       </c>
       <c r="B28" s="10">
         <v>166.37</v>
       </c>
-      <c r="C28" s="11"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2027</v>
       </c>
@@ -1584,18 +1969,16 @@
         <f t="shared" si="1"/>
         <v>157.73995780176483</v>
       </c>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2028</v>
       </c>
       <c r="B30" s="10">
         <v>149.96</v>
       </c>
-      <c r="C30" s="11"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2029</v>
       </c>
@@ -1603,18 +1986,16 @@
         <f t="shared" si="1"/>
         <v>143.4380534265656</v>
       </c>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2030</v>
       </c>
       <c r="B32" s="10">
         <v>137.68</v>
       </c>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>2031</v>
       </c>
@@ -1622,24 +2003,22 @@
         <f>AVERAGE(B32,B34)</f>
         <v>135.565</v>
       </c>
-      <c r="C33" s="11"/>
       <c r="F33" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2032</v>
       </c>
       <c r="B34" s="10">
         <v>133.44999999999999</v>
       </c>
-      <c r="C34" s="11"/>
       <c r="F34" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>2033</v>
       </c>
@@ -1647,18 +2026,16 @@
         <f>AVERAGE(B34,B36)</f>
         <v>131.91999999999999</v>
       </c>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2034</v>
       </c>
       <c r="B36" s="10">
         <v>130.38999999999999</v>
       </c>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>2035</v>
       </c>
@@ -1666,18 +2043,16 @@
         <f>AVERAGE(B36,B38)</f>
         <v>129.16</v>
       </c>
-      <c r="C37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2036</v>
       </c>
       <c r="B38" s="10">
         <v>127.93</v>
       </c>
-      <c r="C38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>2037</v>
       </c>
@@ -1685,18 +2060,16 @@
         <f>AVERAGE(B38,B40)</f>
         <v>126.855</v>
       </c>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>2038</v>
       </c>
       <c r="B40" s="10">
         <v>125.78</v>
       </c>
-      <c r="C40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2039</v>
       </c>
@@ -1704,18 +2077,16 @@
         <f>AVERAGE(B40,B42)</f>
         <v>124.77000000000001</v>
       </c>
-      <c r="C41" s="11"/>
-    </row>
-    <row r="42" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>2040</v>
       </c>
       <c r="B42" s="10">
         <v>123.76</v>
       </c>
-      <c r="C42" s="11"/>
-    </row>
-    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2041</v>
       </c>
@@ -1723,18 +2094,16 @@
         <f>AVERAGE(B42,B44)</f>
         <v>122.68</v>
       </c>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="44" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>2042</v>
       </c>
       <c r="B44" s="10">
         <v>121.6</v>
       </c>
-      <c r="C44" s="11"/>
-    </row>
-    <row r="45" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2043</v>
       </c>
@@ -1742,18 +2111,16 @@
         <f>AVERAGE(B44,B46)</f>
         <v>120.55</v>
       </c>
-      <c r="C45" s="11"/>
-    </row>
-    <row r="46" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>2044</v>
       </c>
       <c r="B46" s="10">
         <v>119.5</v>
       </c>
-      <c r="C46" s="11"/>
-    </row>
-    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>2045</v>
       </c>
@@ -1761,18 +2128,16 @@
         <f>AVERAGE(B46,B48)</f>
         <v>118.49000000000001</v>
       </c>
-      <c r="C47" s="11"/>
-    </row>
-    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2046</v>
       </c>
       <c r="B48" s="10">
         <v>117.48</v>
       </c>
-      <c r="C48" s="11"/>
-    </row>
-    <row r="49" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>2047</v>
       </c>
@@ -1780,18 +2145,16 @@
         <f>AVERAGE(B48,B50)</f>
         <v>116.495</v>
       </c>
-      <c r="C49" s="11"/>
-    </row>
-    <row r="50" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2048</v>
       </c>
       <c r="B50" s="10">
         <v>115.51</v>
       </c>
-      <c r="C50" s="11"/>
-    </row>
-    <row r="51" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>2049</v>
       </c>
@@ -1799,39 +2162,37 @@
         <f>AVERAGE(B50,B52)</f>
         <v>114.56</v>
       </c>
-      <c r="C51" s="11"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2050</v>
       </c>
       <c r="B52" s="10">
         <v>113.61</v>
       </c>
-      <c r="C52" s="11"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>22</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>4</v>
       </c>
@@ -1845,7 +2206,7 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +2217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>603</v>
       </c>
@@ -1864,11 +2225,11 @@
         <v>2010</v>
       </c>
       <c r="C60" s="14">
-        <f>A60*About!$A$19</f>
+        <f>A60*About!$A$41</f>
         <v>636.16499999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>779</v>
       </c>
@@ -1876,11 +2237,11 @@
         <v>2010</v>
       </c>
       <c r="C61" s="14">
-        <f>A61*About!$A$19</f>
+        <f>A61*About!$A$41</f>
         <v>821.84499999999991</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>711</v>
       </c>
@@ -1888,11 +2249,11 @@
         <v>2010</v>
       </c>
       <c r="C62" s="14">
-        <f>A62*About!$A$19</f>
+        <f>A62*About!$A$41</f>
         <v>750.1049999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>707</v>
       </c>
@@ -1900,11 +2261,11 @@
         <v>2010</v>
       </c>
       <c r="C63" s="14">
-        <f>A63*About!$A$19</f>
+        <f>A63*About!$A$41</f>
         <v>745.88499999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>637</v>
       </c>
@@ -1912,11 +2273,11 @@
         <v>2010</v>
       </c>
       <c r="C64" s="14">
-        <f>A64*About!$A$19</f>
+        <f>A64*About!$A$41</f>
         <v>672.03499999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C65" s="17">
         <f>AVERAGE(C60:C64)</f>
         <v>725.20699999999999</v>
@@ -1925,32 +2286,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>5</v>
       </c>
@@ -1958,15 +2319,12 @@
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>6</v>
       </c>
-      <c r="D74" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" t="s">
         <v>3</v>
@@ -1974,11 +2332,8 @@
       <c r="C75" t="s">
         <v>0</v>
       </c>
-      <c r="D75" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>2010</v>
       </c>
@@ -1990,12 +2345,8 @@
         <f>C65</f>
         <v>725.20699999999999</v>
       </c>
-      <c r="D76" s="11">
-        <f>C76*Conversions!$C$4*Conversions!$C$5</f>
-        <v>957.31060278357393</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>2011</v>
       </c>
@@ -2007,12 +2358,8 @@
         <f>B77+(C$76-B$76)</f>
         <v>701.39771447732858</v>
       </c>
-      <c r="D77" s="11">
-        <f>C77*Conversions!$C$4*Conversions!$C$5</f>
-        <v>925.8811192353528</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>2012</v>
       </c>
@@ -2024,12 +2371,8 @@
         <f t="shared" ref="C78:C116" si="3">B78+(C$76-B$76)</f>
         <v>678.54033371672779</v>
       </c>
-      <c r="D78" s="11">
-        <f>C78*Conversions!$C$4*Conversions!$C$5</f>
-        <v>895.70819901535435</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>2013</v>
       </c>
@@ -2041,12 +2384,8 @@
         <f t="shared" si="3"/>
         <v>656.63485771796479</v>
       </c>
-      <c r="D79" s="11">
-        <f>C79*Conversions!$C$4*Conversions!$C$5</f>
-        <v>866.79184212327129</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>2014</v>
       </c>
@@ -2058,12 +2397,8 @@
         <f t="shared" si="3"/>
         <v>635.68128648150525</v>
       </c>
-      <c r="D80" s="11">
-        <f>C80*Conversions!$C$4*Conversions!$C$5</f>
-        <v>839.13204855971821</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>2015</v>
       </c>
@@ -2075,12 +2410,8 @@
         <f t="shared" si="3"/>
         <v>615.67962000688351</v>
       </c>
-      <c r="D81" s="11">
-        <f>C81*Conversions!$C$4*Conversions!$C$5</f>
-        <v>812.72881832408041</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>2016</v>
       </c>
@@ -2092,12 +2423,8 @@
         <f t="shared" si="3"/>
         <v>596.62985829409956</v>
       </c>
-      <c r="D82" s="11">
-        <f>C82*Conversions!$C$4*Conversions!$C$5</f>
-        <v>787.58215141635799</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>2017</v>
       </c>
@@ -2109,12 +2436,8 @@
         <f t="shared" si="3"/>
         <v>578.53200134338624</v>
       </c>
-      <c r="D83" s="11">
-        <f>C83*Conversions!$C$4*Conversions!$C$5</f>
-        <v>763.69204783685825</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>2018</v>
       </c>
@@ -2126,12 +2449,8 @@
         <f t="shared" si="3"/>
         <v>561.99823594581153</v>
       </c>
-      <c r="D84" s="11">
-        <f>C84*Conversions!$C$4*Conversions!$C$5</f>
-        <v>741.86662568975487</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>2019</v>
       </c>
@@ -2143,12 +2462,8 @@
         <f t="shared" si="3"/>
         <v>545.19200172863714</v>
       </c>
-      <c r="D85" s="11">
-        <f>C85*Conversions!$C$4*Conversions!$C$5</f>
-        <v>719.68153066314164</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>2020</v>
       </c>
@@ -2160,12 +2475,8 @@
         <f t="shared" si="3"/>
         <v>528.72823594581155</v>
       </c>
-      <c r="D86" s="11">
-        <f>C86*Conversions!$C$4*Conversions!$C$5</f>
-        <v>697.94851161389863</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>2021</v>
       </c>
@@ -2177,12 +2488,8 @@
         <f t="shared" si="3"/>
         <v>515.65962116147205</v>
       </c>
-      <c r="D87" s="11">
-        <f>C87*Conversions!$C$4*Conversions!$C$5</f>
-        <v>680.69726680139354</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>2022</v>
       </c>
@@ -2194,12 +2501,8 @@
         <f t="shared" si="3"/>
         <v>502.56823594581147</v>
       </c>
-      <c r="D88" s="11">
-        <f>C88*Conversions!$C$4*Conversions!$C$5</f>
-        <v>663.4159638464082</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>2023</v>
       </c>
@@ -2211,12 +2514,8 @@
         <f t="shared" si="3"/>
         <v>489.9348596421238</v>
       </c>
-      <c r="D89" s="11">
-        <f>C89*Conversions!$C$4*Conversions!$C$5</f>
-        <v>646.73925625192146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>2024</v>
       </c>
@@ -2228,12 +2527,8 @@
         <f t="shared" si="3"/>
         <v>478.99823594581153</v>
       </c>
-      <c r="D90" s="11">
-        <f>C90*Conversions!$C$4*Conversions!$C$5</f>
-        <v>632.30234951614284</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>2025</v>
       </c>
@@ -2245,12 +2540,8 @@
         <f t="shared" si="3"/>
         <v>468.01771717082522</v>
       </c>
-      <c r="D91" s="11">
-        <f>C91*Conversions!$C$4*Conversions!$C$5</f>
-        <v>617.80749901503282</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>2026</v>
       </c>
@@ -2262,12 +2553,8 @@
         <f t="shared" si="3"/>
         <v>458.53823594581149</v>
       </c>
-      <c r="D92" s="11">
-        <f>C92*Conversions!$C$4*Conversions!$C$5</f>
-        <v>605.29409541358734</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>2027</v>
       </c>
@@ -2279,12 +2566,8 @@
         <f t="shared" si="3"/>
         <v>449.90819374757632</v>
       </c>
-      <c r="D93" s="11">
-        <f>C93*Conversions!$C$4*Conversions!$C$5</f>
-        <v>593.9019950907275</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>2028</v>
       </c>
@@ -2296,12 +2579,8 @@
         <f t="shared" si="3"/>
         <v>442.12823594581153</v>
       </c>
-      <c r="D94" s="11">
-        <f>C94*Conversions!$C$4*Conversions!$C$5</f>
-        <v>583.63204996769616</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>2029</v>
       </c>
@@ -2313,12 +2592,8 @@
         <f t="shared" si="3"/>
         <v>435.60628937237709</v>
       </c>
-      <c r="D95" s="11">
-        <f>C95*Conversions!$C$4*Conversions!$C$5</f>
-        <v>575.02274447900572</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>2030</v>
       </c>
@@ -2330,12 +2605,8 @@
         <f t="shared" si="3"/>
         <v>429.8482359458115</v>
       </c>
-      <c r="D96" s="11">
-        <f>C96*Conversions!$C$4*Conversions!$C$5</f>
-        <v>567.42181730008224</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>2031</v>
       </c>
@@ -2347,12 +2618,8 @@
         <f t="shared" si="3"/>
         <v>427.73323594581149</v>
       </c>
-      <c r="D97" s="11">
-        <f>C97*Conversions!$C$4*Conversions!$C$5</f>
-        <v>564.62990833493529</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>2032</v>
       </c>
@@ -2364,12 +2631,8 @@
         <f t="shared" si="3"/>
         <v>425.61823594581148</v>
       </c>
-      <c r="D98" s="11">
-        <f>C98*Conversions!$C$4*Conversions!$C$5</f>
-        <v>561.83799936978846</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>2033</v>
       </c>
@@ -2381,12 +2644,8 @@
         <f t="shared" si="3"/>
         <v>424.08823594581145</v>
       </c>
-      <c r="D99" s="11">
-        <f>C99*Conversions!$C$4*Conversions!$C$5</f>
-        <v>559.81832054393749</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>2034</v>
       </c>
@@ -2398,12 +2657,8 @@
         <f t="shared" si="3"/>
         <v>422.55823594581148</v>
       </c>
-      <c r="D100" s="11">
-        <f>C100*Conversions!$C$4*Conversions!$C$5</f>
-        <v>557.79864171808663</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>2035</v>
       </c>
@@ -2415,12 +2670,8 @@
         <f t="shared" si="3"/>
         <v>421.32823594581146</v>
       </c>
-      <c r="D101" s="11">
-        <f>C101*Conversions!$C$4*Conversions!$C$5</f>
-        <v>556.17497834828487</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>2036</v>
       </c>
@@ -2432,12 +2683,8 @@
         <f t="shared" si="3"/>
         <v>420.0982359458115</v>
       </c>
-      <c r="D102" s="11">
-        <f>C102*Conversions!$C$4*Conversions!$C$5</f>
-        <v>554.55131497848322</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>2037</v>
       </c>
@@ -2449,12 +2696,8 @@
         <f t="shared" si="3"/>
         <v>419.02323594581151</v>
       </c>
-      <c r="D103" s="11">
-        <f>C103*Conversions!$C$4*Conversions!$C$5</f>
-        <v>553.1322595943069</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>2038</v>
       </c>
@@ -2466,12 +2709,8 @@
         <f t="shared" si="3"/>
         <v>417.94823594581146</v>
       </c>
-      <c r="D104" s="11">
-        <f>C104*Conversions!$C$4*Conversions!$C$5</f>
-        <v>551.71320421013058</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>2039</v>
       </c>
@@ -2483,12 +2722,8 @@
         <f t="shared" si="3"/>
         <v>416.93823594581147</v>
       </c>
-      <c r="D105" s="11">
-        <f>C105*Conversions!$C$4*Conversions!$C$5</f>
-        <v>550.37995217476498</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>2040</v>
       </c>
@@ -2500,12 +2735,8 @@
         <f t="shared" si="3"/>
         <v>415.92823594581148</v>
       </c>
-      <c r="D106" s="11">
-        <f>C106*Conversions!$C$4*Conversions!$C$5</f>
-        <v>549.04670013939938</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>2041</v>
       </c>
@@ -2517,12 +2748,8 @@
         <f t="shared" si="3"/>
         <v>414.8482359458115</v>
       </c>
-      <c r="D107" s="11">
-        <f>C107*Conversions!$C$4*Conversions!$C$5</f>
-        <v>547.62104449762217</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>2042</v>
       </c>
@@ -2534,12 +2761,8 @@
         <f t="shared" si="3"/>
         <v>413.76823594581151</v>
       </c>
-      <c r="D108" s="11">
-        <f>C108*Conversions!$C$4*Conversions!$C$5</f>
-        <v>546.19538885584507</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>2043</v>
       </c>
@@ -2551,12 +2774,8 @@
         <f t="shared" si="3"/>
         <v>412.7182359458115</v>
       </c>
-      <c r="D109" s="11">
-        <f>C109*Conversions!$C$4*Conversions!$C$5</f>
-        <v>544.80933475967288</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>2044</v>
       </c>
@@ -2568,12 +2787,8 @@
         <f t="shared" si="3"/>
         <v>411.66823594581149</v>
       </c>
-      <c r="D110" s="11">
-        <f>C110*Conversions!$C$4*Conversions!$C$5</f>
-        <v>543.42328066350069</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>2045</v>
       </c>
@@ -2585,12 +2800,8 @@
         <f t="shared" si="3"/>
         <v>410.6582359458115</v>
       </c>
-      <c r="D111" s="11">
-        <f>C111*Conversions!$C$4*Conversions!$C$5</f>
-        <v>542.09002862813509</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>2046</v>
       </c>
@@ -2602,12 +2813,8 @@
         <f t="shared" si="3"/>
         <v>409.64823594581151</v>
       </c>
-      <c r="D112" s="11">
-        <f>C112*Conversions!$C$4*Conversions!$C$5</f>
-        <v>540.75677659276937</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>2047</v>
       </c>
@@ -2619,12 +2826,8 @@
         <f t="shared" si="3"/>
         <v>408.66323594581149</v>
       </c>
-      <c r="D113" s="11">
-        <f>C113*Conversions!$C$4*Conversions!$C$5</f>
-        <v>539.4565258454079</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>2048</v>
       </c>
@@ -2636,12 +2839,8 @@
         <f t="shared" si="3"/>
         <v>407.67823594581148</v>
       </c>
-      <c r="D114" s="11">
-        <f>C114*Conversions!$C$4*Conversions!$C$5</f>
-        <v>538.15627509804631</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>2049</v>
       </c>
@@ -2653,12 +2852,8 @@
         <f t="shared" si="3"/>
         <v>406.72823594581149</v>
       </c>
-      <c r="D115" s="11">
-        <f>C115*Conversions!$C$4*Conversions!$C$5</f>
-        <v>536.90222615389052</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>2050</v>
       </c>
@@ -2669,10 +2864,6 @@
       <c r="C116" s="11">
         <f t="shared" si="3"/>
         <v>405.7782359458115</v>
-      </c>
-      <c r="D116" s="11">
-        <f>C116*Conversions!$C$4*Conversions!$C$5</f>
-        <v>535.64817720973474</v>
       </c>
     </row>
   </sheetData>
@@ -2681,24 +2872,813 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC34B27C-0BFA-4D35-874E-EA84BA74EBE0}">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" style="20" customWidth="1"/>
+    <col min="2" max="13" width="11.28515625" style="20" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="23">
+        <v>50160000</v>
+      </c>
+      <c r="C4" s="26">
+        <v>209</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0.84</v>
+      </c>
+      <c r="E4" s="27">
+        <v>25080000</v>
+      </c>
+      <c r="F4" s="26">
+        <v>209</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0.42</v>
+      </c>
+      <c r="H4" s="27">
+        <v>12540000</v>
+      </c>
+      <c r="I4" s="26">
+        <v>209</v>
+      </c>
+      <c r="J4" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="K4" s="27">
+        <v>6270000</v>
+      </c>
+      <c r="L4" s="26">
+        <v>209</v>
+      </c>
+      <c r="M4" s="24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="23">
+        <v>4200000</v>
+      </c>
+      <c r="C5" s="26">
+        <v>18</v>
+      </c>
+      <c r="D5" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E5" s="27">
+        <v>4200000</v>
+      </c>
+      <c r="F5" s="26">
+        <v>35</v>
+      </c>
+      <c r="G5" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H5" s="27">
+        <v>4200000</v>
+      </c>
+      <c r="I5" s="26">
+        <v>70</v>
+      </c>
+      <c r="J5" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K5" s="27">
+        <v>4200000</v>
+      </c>
+      <c r="L5" s="26">
+        <v>140</v>
+      </c>
+      <c r="M5" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="23">
+        <v>3121131</v>
+      </c>
+      <c r="C6" s="26">
+        <v>13</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="27">
+        <v>1813452</v>
+      </c>
+      <c r="F6" s="26">
+        <v>15</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="H6" s="27">
+        <v>1159612</v>
+      </c>
+      <c r="I6" s="26">
+        <v>19</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="K6" s="27">
+        <v>832692</v>
+      </c>
+      <c r="L6" s="26">
+        <v>28</v>
+      </c>
+      <c r="M6" s="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="23">
+        <v>8602825</v>
+      </c>
+      <c r="C7" s="26">
+        <v>36</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7" s="27">
+        <v>6119167</v>
+      </c>
+      <c r="F7" s="26">
+        <v>51</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="27">
+        <v>4877337</v>
+      </c>
+      <c r="I7" s="26">
+        <v>81</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="K7" s="27">
+        <v>4256423</v>
+      </c>
+      <c r="L7" s="26">
+        <v>142</v>
+      </c>
+      <c r="M7" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="23">
+        <v>5479149</v>
+      </c>
+      <c r="C8" s="26">
+        <v>23</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="E8" s="27">
+        <v>4322275</v>
+      </c>
+      <c r="F8" s="26">
+        <v>36</v>
+      </c>
+      <c r="G8" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H8" s="27">
+        <v>3743838</v>
+      </c>
+      <c r="I8" s="26">
+        <v>62</v>
+      </c>
+      <c r="J8" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="K8" s="27">
+        <v>3454619</v>
+      </c>
+      <c r="L8" s="26">
+        <v>115</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="23">
+        <v>2775545</v>
+      </c>
+      <c r="C9" s="26">
+        <v>12</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1948565</v>
+      </c>
+      <c r="F9" s="26">
+        <v>16</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="H9" s="27">
+        <v>1535075</v>
+      </c>
+      <c r="I9" s="26">
+        <v>26</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="K9" s="27">
+        <v>1328330</v>
+      </c>
+      <c r="L9" s="26">
+        <v>44</v>
+      </c>
+      <c r="M9" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="23">
+        <v>5293460</v>
+      </c>
+      <c r="C10" s="26">
+        <v>22</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="E10" s="27">
+        <v>3083292</v>
+      </c>
+      <c r="F10" s="26">
+        <v>26</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="27">
+        <v>1978209</v>
+      </c>
+      <c r="I10" s="26">
+        <v>33</v>
+      </c>
+      <c r="J10" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="K10" s="27">
+        <v>1425667</v>
+      </c>
+      <c r="L10" s="26">
+        <v>48</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="43">
+        <v>79632110</v>
+      </c>
+      <c r="C11" s="44">
+        <v>332</v>
+      </c>
+      <c r="D11" s="45">
+        <v>1.33</v>
+      </c>
+      <c r="E11" s="46">
+        <v>46566751</v>
+      </c>
+      <c r="F11" s="44">
+        <v>388</v>
+      </c>
+      <c r="G11" s="45">
+        <v>0.78</v>
+      </c>
+      <c r="H11" s="46">
+        <v>30034071</v>
+      </c>
+      <c r="I11" s="44">
+        <v>501</v>
+      </c>
+      <c r="J11" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="46">
+        <v>21767732</v>
+      </c>
+      <c r="L11" s="44">
+        <v>726</v>
+      </c>
+      <c r="M11" s="45">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="21">
+        <v>250000</v>
+      </c>
+      <c r="C12" s="22">
+        <v>1</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="28">
+        <v>250000</v>
+      </c>
+      <c r="F12" s="22">
+        <v>2</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="28">
+        <v>250000</v>
+      </c>
+      <c r="I12" s="22">
+        <v>4</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0</v>
+      </c>
+      <c r="K12" s="28">
+        <v>250000</v>
+      </c>
+      <c r="L12" s="22">
+        <v>8</v>
+      </c>
+      <c r="M12" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="23">
+        <v>295289</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27">
+        <v>295289</v>
+      </c>
+      <c r="F13" s="26">
+        <v>2</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27">
+        <v>295289</v>
+      </c>
+      <c r="I13" s="26">
+        <v>5</v>
+      </c>
+      <c r="J13" s="24">
+        <v>0</v>
+      </c>
+      <c r="K13" s="27">
+        <v>295289</v>
+      </c>
+      <c r="L13" s="26">
+        <v>10</v>
+      </c>
+      <c r="M13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="23">
+        <v>1802363</v>
+      </c>
+      <c r="C14" s="26">
+        <v>8</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="E14" s="27">
+        <v>1802363</v>
+      </c>
+      <c r="F14" s="26">
+        <v>15</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="H14" s="27">
+        <v>1802363</v>
+      </c>
+      <c r="I14" s="26">
+        <v>30</v>
+      </c>
+      <c r="J14" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="K14" s="27">
+        <v>1802363</v>
+      </c>
+      <c r="L14" s="26">
+        <v>60</v>
+      </c>
+      <c r="M14" s="24">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="23">
+        <v>2477135</v>
+      </c>
+      <c r="C15" s="26">
+        <v>10</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="E15" s="27">
+        <v>1476303</v>
+      </c>
+      <c r="F15" s="26">
+        <v>12</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="27">
+        <v>975887</v>
+      </c>
+      <c r="I15" s="26">
+        <v>16</v>
+      </c>
+      <c r="J15" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="K15" s="27">
+        <v>725679</v>
+      </c>
+      <c r="L15" s="26">
+        <v>24</v>
+      </c>
+      <c r="M15" s="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="23">
+        <v>2477135</v>
+      </c>
+      <c r="C16" s="26">
+        <v>10</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="27">
+        <v>1476303</v>
+      </c>
+      <c r="F16" s="26">
+        <v>12</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="H16" s="27">
+        <v>975887</v>
+      </c>
+      <c r="I16" s="26">
+        <v>16</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="K16" s="27">
+        <v>725679</v>
+      </c>
+      <c r="L16" s="26">
+        <v>24</v>
+      </c>
+      <c r="M16" s="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="23">
+        <v>4346702</v>
+      </c>
+      <c r="C17" s="26">
+        <v>18</v>
+      </c>
+      <c r="D17" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E17" s="27">
+        <v>2593350</v>
+      </c>
+      <c r="F17" s="26">
+        <v>22</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="H17" s="27">
+        <v>1716675</v>
+      </c>
+      <c r="I17" s="26">
+        <v>29</v>
+      </c>
+      <c r="J17" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="K17" s="27">
+        <v>1278337</v>
+      </c>
+      <c r="L17" s="26">
+        <v>43</v>
+      </c>
+      <c r="M17" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="48">
+        <v>11648623</v>
+      </c>
+      <c r="C18" s="49">
+        <v>49</v>
+      </c>
+      <c r="D18" s="50">
+        <v>0.19</v>
+      </c>
+      <c r="E18" s="51">
+        <v>7893608</v>
+      </c>
+      <c r="F18" s="49">
+        <v>66</v>
+      </c>
+      <c r="G18" s="50">
+        <v>0.13</v>
+      </c>
+      <c r="H18" s="51">
+        <v>6016101</v>
+      </c>
+      <c r="I18" s="49">
+        <v>100</v>
+      </c>
+      <c r="J18" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="51">
+        <v>5077347</v>
+      </c>
+      <c r="L18" s="49">
+        <v>169</v>
+      </c>
+      <c r="M18" s="50">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="55">
+        <f>SUM(D5:D9,D12:D17)</f>
+        <v>0.57999999999999985</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="57">
+        <f>D10*SUM(D5:D7)/SUM(D4:D7)</f>
+        <v>2.1272727272727273E-2</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="55">
+        <f>SUM(D22:D23)</f>
+        <v>0.60127272727272707</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="60">
+        <f>D24*10^6</f>
+        <v>601272.72727272706</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="60">
+        <f>D25*About!A42</f>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF003399"/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -2706,374 +3686,594 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>Calculations!A80</f>
-        <v>2014</v>
+        <f>'Battery Calculations'!A84</f>
+        <v>2018</v>
       </c>
       <c r="B2" s="9">
-        <f>Calculations!D80*1000</f>
-        <v>839132.04855971818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'Battery Calculations'!C84*1000</f>
+        <v>561998.2359458115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>Calculations!A81</f>
-        <v>2015</v>
+        <f>'Battery Calculations'!A85</f>
+        <v>2019</v>
       </c>
       <c r="B3" s="9">
-        <f>Calculations!D81*1000</f>
-        <v>812728.81832408044</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'Battery Calculations'!C85*1000</f>
+        <v>545192.00172863714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>Calculations!A82</f>
-        <v>2016</v>
+        <f>'Battery Calculations'!A86</f>
+        <v>2020</v>
       </c>
       <c r="B4" s="9">
-        <f>Calculations!D82*1000</f>
-        <v>787582.15141635796</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'Battery Calculations'!C86*1000</f>
+        <v>528728.2359458115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>Calculations!A83</f>
-        <v>2017</v>
+        <f>'Battery Calculations'!A87</f>
+        <v>2021</v>
       </c>
       <c r="B5" s="9">
-        <f>Calculations!D83*1000</f>
-        <v>763692.0478368582</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'Battery Calculations'!C87*1000</f>
+        <v>515659.62116147205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>Calculations!A84</f>
+        <f>'Battery Calculations'!A88</f>
+        <v>2022</v>
+      </c>
+      <c r="B6" s="9">
+        <f>'Battery Calculations'!C88*1000</f>
+        <v>502568.2359458115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>'Battery Calculations'!A89</f>
+        <v>2023</v>
+      </c>
+      <c r="B7" s="9">
+        <f>'Battery Calculations'!C89*1000</f>
+        <v>489934.8596421238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>'Battery Calculations'!A90</f>
+        <v>2024</v>
+      </c>
+      <c r="B8" s="9">
+        <f>'Battery Calculations'!C90*1000</f>
+        <v>478998.23594581155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>'Battery Calculations'!A91</f>
+        <v>2025</v>
+      </c>
+      <c r="B9" s="9">
+        <f>'Battery Calculations'!C91*1000</f>
+        <v>468017.71717082523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>'Battery Calculations'!A92</f>
+        <v>2026</v>
+      </c>
+      <c r="B10" s="9">
+        <f>'Battery Calculations'!C92*1000</f>
+        <v>458538.2359458115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>'Battery Calculations'!A93</f>
+        <v>2027</v>
+      </c>
+      <c r="B11" s="9">
+        <f>'Battery Calculations'!C93*1000</f>
+        <v>449908.19374757633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>'Battery Calculations'!A94</f>
+        <v>2028</v>
+      </c>
+      <c r="B12" s="9">
+        <f>'Battery Calculations'!C94*1000</f>
+        <v>442128.23594581155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>'Battery Calculations'!A95</f>
+        <v>2029</v>
+      </c>
+      <c r="B13" s="9">
+        <f>'Battery Calculations'!C95*1000</f>
+        <v>435606.2893723771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>'Battery Calculations'!A96</f>
+        <v>2030</v>
+      </c>
+      <c r="B14" s="9">
+        <f>'Battery Calculations'!C96*1000</f>
+        <v>429848.2359458115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <f>'Battery Calculations'!A97</f>
+        <v>2031</v>
+      </c>
+      <c r="B15" s="9">
+        <f>'Battery Calculations'!C97*1000</f>
+        <v>427733.2359458115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <f>'Battery Calculations'!A98</f>
+        <v>2032</v>
+      </c>
+      <c r="B16" s="9">
+        <f>'Battery Calculations'!C98*1000</f>
+        <v>425618.2359458115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <f>'Battery Calculations'!A99</f>
+        <v>2033</v>
+      </c>
+      <c r="B17" s="9">
+        <f>'Battery Calculations'!C99*1000</f>
+        <v>424088.23594581144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <f>'Battery Calculations'!A100</f>
+        <v>2034</v>
+      </c>
+      <c r="B18" s="9">
+        <f>'Battery Calculations'!C100*1000</f>
+        <v>422558.2359458115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <f>'Battery Calculations'!A101</f>
+        <v>2035</v>
+      </c>
+      <c r="B19" s="9">
+        <f>'Battery Calculations'!C101*1000</f>
+        <v>421328.23594581144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <f>'Battery Calculations'!A102</f>
+        <v>2036</v>
+      </c>
+      <c r="B20" s="9">
+        <f>'Battery Calculations'!C102*1000</f>
+        <v>420098.2359458115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <f>'Battery Calculations'!A103</f>
+        <v>2037</v>
+      </c>
+      <c r="B21" s="9">
+        <f>'Battery Calculations'!C103*1000</f>
+        <v>419023.2359458115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <f>'Battery Calculations'!A104</f>
+        <v>2038</v>
+      </c>
+      <c r="B22" s="9">
+        <f>'Battery Calculations'!C104*1000</f>
+        <v>417948.23594581144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <f>'Battery Calculations'!A105</f>
+        <v>2039</v>
+      </c>
+      <c r="B23" s="9">
+        <f>'Battery Calculations'!C105*1000</f>
+        <v>416938.2359458115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <f>'Battery Calculations'!A106</f>
+        <v>2040</v>
+      </c>
+      <c r="B24" s="9">
+        <f>'Battery Calculations'!C106*1000</f>
+        <v>415928.2359458115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <f>'Battery Calculations'!A107</f>
+        <v>2041</v>
+      </c>
+      <c r="B25" s="9">
+        <f>'Battery Calculations'!C107*1000</f>
+        <v>414848.2359458115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <f>'Battery Calculations'!A108</f>
+        <v>2042</v>
+      </c>
+      <c r="B26" s="9">
+        <f>'Battery Calculations'!C108*1000</f>
+        <v>413768.2359458115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <f>'Battery Calculations'!A109</f>
+        <v>2043</v>
+      </c>
+      <c r="B27" s="9">
+        <f>'Battery Calculations'!C109*1000</f>
+        <v>412718.2359458115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <f>'Battery Calculations'!A110</f>
+        <v>2044</v>
+      </c>
+      <c r="B28" s="9">
+        <f>'Battery Calculations'!C110*1000</f>
+        <v>411668.2359458115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <f>'Battery Calculations'!A111</f>
+        <v>2045</v>
+      </c>
+      <c r="B29" s="9">
+        <f>'Battery Calculations'!C111*1000</f>
+        <v>410658.2359458115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <f>'Battery Calculations'!A112</f>
+        <v>2046</v>
+      </c>
+      <c r="B30" s="9">
+        <f>'Battery Calculations'!C112*1000</f>
+        <v>409648.2359458115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <f>'Battery Calculations'!A113</f>
+        <v>2047</v>
+      </c>
+      <c r="B31" s="9">
+        <f>'Battery Calculations'!C113*1000</f>
+        <v>408663.2359458115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <f>'Battery Calculations'!A114</f>
+        <v>2048</v>
+      </c>
+      <c r="B32" s="9">
+        <f>'Battery Calculations'!C114*1000</f>
+        <v>407678.2359458115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <f>'Battery Calculations'!A115</f>
+        <v>2049</v>
+      </c>
+      <c r="B33" s="9">
+        <f>'Battery Calculations'!C115*1000</f>
+        <v>406728.2359458115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <f>'Battery Calculations'!A116</f>
+        <v>2050</v>
+      </c>
+      <c r="B34" s="9">
+        <f>'Battery Calculations'!C116*1000</f>
+        <v>405778.2359458115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2600C7A-0160-47B2-B089-93F8CBD71882}">
+  <sheetPr>
+    <tabColor rgb="FF003399"/>
+  </sheetPr>
+  <dimension ref="A1:AH2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1">
         <v>2018</v>
       </c>
-      <c r="B6" s="9">
-        <f>Calculations!D84*1000</f>
-        <v>741866.62568975484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f>Calculations!A85</f>
+      <c r="C1">
         <v>2019</v>
       </c>
-      <c r="B7" s="9">
-        <f>Calculations!D85*1000</f>
-        <v>719681.53066314163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f>Calculations!A86</f>
+      <c r="D1" s="15">
         <v>2020</v>
       </c>
-      <c r="B8" s="9">
-        <f>Calculations!D86*1000</f>
-        <v>697948.51161389868</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f>Calculations!A87</f>
+      <c r="E1" s="15">
         <v>2021</v>
       </c>
-      <c r="B9" s="9">
-        <f>Calculations!D87*1000</f>
-        <v>680697.26680139359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f>Calculations!A88</f>
+      <c r="F1" s="15">
         <v>2022</v>
       </c>
-      <c r="B10" s="9">
-        <f>Calculations!D88*1000</f>
-        <v>663415.96384640818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f>Calculations!A89</f>
+      <c r="G1" s="15">
         <v>2023</v>
       </c>
-      <c r="B11" s="9">
-        <f>Calculations!D89*1000</f>
-        <v>646739.25625192141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f>Calculations!A90</f>
+      <c r="H1" s="15">
         <v>2024</v>
       </c>
-      <c r="B12" s="9">
-        <f>Calculations!D90*1000</f>
-        <v>632302.34951614286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f>Calculations!A91</f>
+      <c r="I1" s="15">
         <v>2025</v>
       </c>
-      <c r="B13" s="9">
-        <f>Calculations!D91*1000</f>
-        <v>617807.49901503278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f>Calculations!A92</f>
+      <c r="J1" s="15">
         <v>2026</v>
       </c>
-      <c r="B14" s="9">
-        <f>Calculations!D92*1000</f>
-        <v>605294.09541358729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f>Calculations!A93</f>
+      <c r="K1" s="15">
         <v>2027</v>
       </c>
-      <c r="B15" s="9">
-        <f>Calculations!D93*1000</f>
-        <v>593901.99509072746</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f>Calculations!A94</f>
+      <c r="L1" s="15">
         <v>2028</v>
       </c>
-      <c r="B16" s="9">
-        <f>Calculations!D94*1000</f>
-        <v>583632.04996769619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f>Calculations!A95</f>
+      <c r="M1" s="15">
         <v>2029</v>
       </c>
-      <c r="B17" s="9">
-        <f>Calculations!D95*1000</f>
-        <v>575022.74447900569</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f>Calculations!A96</f>
+      <c r="N1" s="15">
         <v>2030</v>
       </c>
-      <c r="B18" s="9">
-        <f>Calculations!D96*1000</f>
-        <v>567421.81730008218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
-        <f>Calculations!A97</f>
+      <c r="O1" s="15">
         <v>2031</v>
       </c>
-      <c r="B19" s="9">
-        <f>Calculations!D97*1000</f>
-        <v>564629.90833493532</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
-        <f>Calculations!A98</f>
+      <c r="P1" s="15">
         <v>2032</v>
       </c>
-      <c r="B20" s="9">
-        <f>Calculations!D98*1000</f>
-        <v>561837.99936978845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
-        <f>Calculations!A99</f>
+      <c r="Q1" s="15">
         <v>2033</v>
       </c>
-      <c r="B21" s="9">
-        <f>Calculations!D99*1000</f>
-        <v>559818.3205439375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
-        <f>Calculations!A100</f>
+      <c r="R1" s="15">
         <v>2034</v>
       </c>
-      <c r="B22" s="9">
-        <f>Calculations!D100*1000</f>
-        <v>557798.64171808667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
-        <f>Calculations!A101</f>
+      <c r="S1" s="15">
         <v>2035</v>
       </c>
-      <c r="B23" s="9">
-        <f>Calculations!D101*1000</f>
-        <v>556174.97834828484</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
-        <f>Calculations!A102</f>
+      <c r="T1" s="15">
         <v>2036</v>
       </c>
-      <c r="B24" s="9">
-        <f>Calculations!D102*1000</f>
-        <v>554551.31497848325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
-        <f>Calculations!A103</f>
+      <c r="U1" s="15">
         <v>2037</v>
       </c>
-      <c r="B25" s="9">
-        <f>Calculations!D103*1000</f>
-        <v>553132.25959430693</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
-        <f>Calculations!A104</f>
+      <c r="V1" s="15">
         <v>2038</v>
       </c>
-      <c r="B26" s="9">
-        <f>Calculations!D104*1000</f>
-        <v>551713.20421013061</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
-        <f>Calculations!A105</f>
+      <c r="W1" s="15">
         <v>2039</v>
       </c>
-      <c r="B27" s="9">
-        <f>Calculations!D105*1000</f>
-        <v>550379.95217476494</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
-        <f>Calculations!A106</f>
+      <c r="X1" s="15">
         <v>2040</v>
       </c>
-      <c r="B28" s="9">
-        <f>Calculations!D106*1000</f>
-        <v>549046.70013939939</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
-        <f>Calculations!A107</f>
+      <c r="Y1" s="15">
         <v>2041</v>
       </c>
-      <c r="B29" s="9">
-        <f>Calculations!D107*1000</f>
-        <v>547621.04449762218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
-        <f>Calculations!A108</f>
+      <c r="Z1" s="15">
         <v>2042</v>
       </c>
-      <c r="B30" s="9">
-        <f>Calculations!D108*1000</f>
-        <v>546195.38885584509</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="15">
-        <f>Calculations!A109</f>
+      <c r="AA1" s="15">
         <v>2043</v>
       </c>
-      <c r="B31" s="9">
-        <f>Calculations!D109*1000</f>
-        <v>544809.33475967287</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="15">
-        <f>Calculations!A110</f>
+      <c r="AB1" s="15">
         <v>2044</v>
       </c>
-      <c r="B32" s="9">
-        <f>Calculations!D110*1000</f>
-        <v>543423.28066350066</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
-        <f>Calculations!A111</f>
+      <c r="AC1" s="15">
         <v>2045</v>
       </c>
-      <c r="B33" s="9">
-        <f>Calculations!D111*1000</f>
-        <v>542090.0286281351</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
-        <f>Calculations!A112</f>
+      <c r="AD1" s="15">
         <v>2046</v>
       </c>
-      <c r="B34" s="9">
-        <f>Calculations!D112*1000</f>
-        <v>540756.77659276943</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
-        <f>Calculations!A113</f>
+      <c r="AE1" s="15">
         <v>2047</v>
       </c>
-      <c r="B35" s="9">
-        <f>Calculations!D113*1000</f>
-        <v>539456.52584540786</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
-        <f>Calculations!A114</f>
+      <c r="AF1" s="15">
         <v>2048</v>
       </c>
-      <c r="B36" s="9">
-        <f>Calculations!D114*1000</f>
-        <v>538156.27509804629</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
-        <f>Calculations!A115</f>
+      <c r="AG1" s="15">
         <v>2049</v>
       </c>
-      <c r="B37" s="9">
-        <f>Calculations!D115*1000</f>
-        <v>536902.22615389049</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
-        <f>Calculations!A116</f>
+      <c r="AH1" s="15">
         <v>2050</v>
       </c>
-      <c r="B38" s="9">
-        <f>Calculations!D116*1000</f>
-        <v>535648.17720973468</v>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="9">
+        <f>'Balance of System Calculations'!D26</f>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="C2" s="9">
+        <f>$B2</f>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="D2" s="9">
+        <f t="shared" ref="D2:AH2" si="0">$B2</f>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="E2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="F2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="G2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="H2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="I2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="J2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="K2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="L2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="M2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="N2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="O2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="P2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="Q2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="R2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="S2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="T2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="U2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="V2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="W2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="X2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="Y2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="Z2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AA2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AB2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AC2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AD2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AE2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AF2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AG2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AH2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/elec/BCpUC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{26C6F2EA-4A60-4C7E-ADE8-36917C57C687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F58ACF7-5EDE-4072-8345-116694F51E0E}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{26C6F2EA-4A60-4C7E-ADE8-36917C57C687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40EB09E9-16D6-4F10-A52F-2BC22B003235}"/>
   <bookViews>
-    <workbookView xWindow="-13890" yWindow="-16365" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="BCpUC" sheetId="3" r:id="rId5"/>
     <sheet name="BBoSCpUC" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterate="1" iterateCount="25"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2334,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4 B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2567,6 +2567,7 @@
     <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B29" r:id="rId3" xr:uid="{CA93FE29-A0A0-406A-B94C-DC5006AB819F}"/>
+    <hyperlink ref="B22" r:id="rId4" xr:uid="{D8978125-F17F-4A10-A9E4-25822C7EBF87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2577,7 +2578,7 @@
   <dimension ref="B1:AK17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5933,7 +5934,7 @@
   </sheetPr>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6191,15 +6192,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -6459,15 +6451,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04BE3C00-9504-4975-9E78-5F6466C59A6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95A46C12-9FE6-4E9A-A53E-BF2A84A43F88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6485,4 +6478,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04BE3C00-9504-4975-9E78-5F6466C59A6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26301"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -6193,15 +6193,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -6461,10 +6452,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04BE3C00-9504-4975-9E78-5F6466C59A6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95A46C12-9FE6-4E9A-A53E-BF2A84A43F88}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95A46C12-9FE6-4E9A-A53E-BF2A84A43F88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04BE3C00-9504-4975-9E78-5F6466C59A6A}"/>
 </file>
--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -6193,8 +6193,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -6220,6 +6220,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6320,6 +6321,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -6461,10 +6467,34 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95A46C12-9FE6-4E9A-A53E-BF2A84A43F88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F93C867-9F54-40CC-851D-1B4CCB13E4F1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04BE3C00-9504-4975-9E78-5F6466C59A6A}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7343055-3DE7-4E89-AF7A-7E210BCE501C}"/>
 </file>